--- a/biology/Mycologie/Ustilago/Ustilago.xlsx
+++ b/biology/Mycologie/Ustilago/Ustilago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ustilago est un genre de champignons basidiomycètes de la famille des Ustilaginaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ustilago est un genre de champignons basidiomycètes de la famille des Ustilaginaceae.
 Ce genre comprend environ 200 espèces de champignons phytopathogènes qui provoquent la maladie du « charbon » chez de nombreuses espèces de plantes. Les espèces végétales affectées sont principalement des Poaceae (graminées).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 octobre 2014) :
 Uredo subgen. Ustilago Pers. 1801,
 Hypodermium subgen. Ustilago Pers. 1816,
 Necrosis Paulet 1793,
@@ -551,9 +565,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 octobre 2014) :
 Ustilago acroceratis
 Ustilago aegopogonis
 Ustilago aeluropodis
@@ -795,7 +811,7 @@
 Ustilago xerochloae
 Ustilago zambettakesii
 Ustilago zernae
-Selon Index Fungorum                                      (3 octobre 2014)[4] :
+Selon Index Fungorum                                      (3 octobre 2014) :
 Ustilago abortifera Speg. 1898
 Ustilago acaenae Dietel &amp; Neger 1898
 Ustilago acetosellae Maire 1912
@@ -873,7 +889,7 @@
 Ustilago calcarea Griffiths 1904
 Ustilago cardui-acanthoidis Reess
 Ustilago caricis-wallichianae Thirum. &amp; Pavgi 1953
-Selon ITIS      (3 octobre 2014)[1] :
+Selon ITIS      (3 octobre 2014) :
 Ustilago avenae (Pers.) Rostr.
 Ustilago maydis (DC.) Corda
 Ustilago nuda (C.N. Jensen) Kellerm. &amp; Swingle
@@ -905,9 +921,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 octobre 2014)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 octobre 2014) :
 Ustilago aeluropodis
 Ustilago affinis
 Ustilago alcornii
